--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Pieces" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="Settings" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Constants" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Assets" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="GoToCorner" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
   <si>
     <t xml:space="preserve">PieceName</t>
   </si>
@@ -321,6 +322,27 @@
   </si>
   <si>
     <t xml:space="preserve">Description (Assets will always overwrite other config)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">player_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go_to_x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go_to_y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange</t>
   </si>
 </sst>
 </file>
@@ -478,10 +500,10 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.22"/>
@@ -1205,7 +1227,7 @@
       <selection pane="topLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.87"/>
@@ -1623,11 +1645,11 @@
   </sheetPr>
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43"/>
@@ -2800,10 +2822,10 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51"/>
@@ -3934,7 +3956,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.1"/>
@@ -4988,6 +5010,85 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <DataMashup xmlns="http://schemas.microsoft.com/DataMashup">AAAAABIDAABQSwMEFAACAAgAG71nVNheidOiAAAA9gAAABIAHABDb25maWcvUGFja2FnZS54bWwgohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAhY+xDoIwFEV/hXSnLXUx5FEHV0lMiMa1KRUa4WFosfybg5/kL4hR1M3xnnuGe+/XG6zGtokupne2w4wklJPIoO5Ki1VGBn+Ml2QlYav0SVUmmmR06ejKjNTen1PGQgg0LGjXV0xwnrBDvil0bVpFPrL9L8cWnVeoDZGwf42RgiZcUMGnTcBmCLnFryCm7tn+QFgPjR96Iw3GuwLYHIG9P8gHUEsDBBQAAgAIABu9Z1QPyumrpAAAAOkAAAATABwAW0NvbnRlbnRfVHlwZXNdLnhtbCCiGAAooBQAAAAAAAAAAAAAAAAAAAAAAAAAAABtjksOwjAMRK8SeZ+6sEAINWUB3IALRMH9iOajxkXhbCw4ElcgbXeIpWfmeebzelfHZAfxoDH23inYFCUIcsbfetcqmLiRezjW1fUZKIocdVFBxxwOiNF0ZHUsfCCXncaPVnM+xxaDNnfdEm7LcofGOybHkucfUFdnavQ0sLikLK+1GQdxWnNzlQKmxLjI+JewP3kdwtAbzdnEJG2UdiFxGV5/AVBLAwQUAAIACAAbvWdUKIpHuA4AAAARAAAAEwAcAEZvcm11bGFzL1NlY3Rpb24xLm0gohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAK05NLsnMz1MIhtCG1gBQSwECLQAUAAIACAAbvWdU2F6J06IAAAD2AAAAEgAAAAAAAAAAAAAAAAAAAAAAQ29uZmlnL1BhY2thZ2UueG1sUEsBAi0AFAACAAgAG71nVA/K6aukAAAA6QAAABMAAAAAAAAAAAAAAAAA7gAAAFtDb250ZW50X1R5cGVzXS54bWxQSwECLQAUAAIACAAbvWdUKIpHuA4AAAARAAAAEwAAAAAAAAAAAAAAAADfAQAARm9ybXVsYXMvU2VjdGlvbjEubVBLBQYAAAAAAwADAMIAAAA6AgAAAAAQAQAA77u/PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXRmLTgiPz48UGVybWlzc2lvbkxpc3QgeG1sbnM6eHNkPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYSIgeG1sbnM6eHNpPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYS1pbnN0YW5jZSI+PENhbkV2YWx1YXRlRnV0dXJlUGFja2FnZXM+ZmFsc2U8L0NhbkV2YWx1YXRlRnV0dXJlUGFja2FnZXM+PEZpcmV3YWxsRW5hYmxlZD50cnVlPC9GaXJld2FsbEVuYWJsZWQ+PC9QZXJtaXNzaW9uTGlzdD6XAQAAAAAAAHUBAADvu788P3htbCB2ZXJzaW9uPSIxLjAiIGVuY29kaW5nPSJ1dGYtOCI/PjxMb2NhbFBhY2thZ2VNZXRhZGF0YUZpbGUgeG1sbnM6eHNkPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYSIgeG1sbnM6eHNpPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYS1pbnN0YW5jZSI+PEl0ZW1zPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkFsbEZvcm11bGFzPC9JdGVtVHlwZT48SXRlbVBhdGggLz48L0l0ZW1Mb2NhdGlvbj48U3RhYmxlRW50cmllcz48RW50cnkgVHlwZT0iUmVsYXRpb25zaGlwcyIgVmFsdWU9InNBQUFBQUE9PSIgLz48L1N0YWJsZUVudHJpZXM+PC9JdGVtPjwvSXRlbXM+PC9Mb2NhbFBhY2thZ2VNZXRhZGF0YUZpbGU+FgAAAFBLBQYAAAAAAAAAAAAAAAAAAAAAAAAmAQAAAQAAANCMnd8BFdERjHoAwE/Cl+sBAAAA1+qRbHLL0Uuxdd5FL2EBwAAAAAACAAAAAAAQZgAAAAEAACAAAAAGUraNCEioy3CXBpo2tRxIPPv9TqY3MsXARPiLHHDSCgAAAAAOgAAAAAIAACAAAAAvEjwX9hE5f7VP+oiPV5NjDHdwqHLlOXk5dZn/PwV3UFAAAABKCSKFHjxzvPQHbfpFWGxh02sC3/vmLH0dhSHg9+uE3Xxe2ECN9q/sa+npJ4yH3mTnoNb38reT7h145qLA3Il2xa69rCBqFmuFiPt3PZq2Q0AAAAB2LAzeo8dK0aNBbA/pGomUjn/l41QouWdCD10TbWR82oDBBorZC5kyHvqNuRvq7LiyoSU4WnEBVDDiA5bfkovL</DataMashup>
 </file>
